--- a/WilcoxonRankSumTest/output/outputAPMTO.xlsx
+++ b/WilcoxonRankSumTest/output/outputAPMTO.xlsx
@@ -489,50 +489,50 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>6.28e+02
-7.45e+00
+          <t>6.24e+02
+8.14e+00
 -</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>6.52e+02(+)
-7.45e+00
+8.14e+00
 0.0000</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
           <t>6.17e+02(-)
-7.45e+00
+8.14e+00
 0.0000</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>6.21e+02(-)
-7.45e+00
+          <t>6.05e+02(-)
+8.14e+00
 0.0000</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
           <t>6.09e+02(-)
-7.45e+00
+8.14e+00
 0.0000</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>6.09e+02(-)
-7.45e+00
+          <t>6.14e+02(-)
+8.14e+00
 0.0000</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>6.17e+02(-)
-7.45e+00
+8.14e+00
 0.0000</t>
         </is>
       </c>
@@ -576,49 +576,49 @@
       <c r="C3" s="1" t="inlineStr">
         <is>
           <t>6.26e+02
-7.02e+00
+1.08e+01
 -</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t>6.51e+02(+)
-7.02e+00
+1.08e+01
 0.0000</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>6.21e+02(=)
-7.02e+00
-0.0794</t>
+1.08e+01
+0.3784</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>6.21e+02(-)
-7.02e+00
+          <t>6.04e+02(-)
+1.08e+01
 0.0000</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
           <t>6.08e+02(-)
-7.02e+00
+1.08e+01
 0.0000</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>6.09e+02(-)
-7.02e+00
+          <t>6.14e+02(-)
+1.08e+01
 0.0000</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
           <t>6.15e+02(-)
-7.02e+00
+1.08e+01
 0.0000</t>
         </is>
       </c>
@@ -687,9 +687,9 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>7.01e+02(+)
+          <t>7.00e+02(=)
 9.10e-03
-0.0000</t>
+0.1856</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -701,16 +701,16 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
+          <t>7.00e+02(+)
+9.10e-03
+0.0003</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
           <t>7.00e+02(=)
 9.10e-03
-0.4245</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>7.00e+02(=)
-9.10e-03
-0.0548</t>
+1.0000</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>win</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
@@ -753,50 +753,50 @@
       <c r="C5" s="1" t="inlineStr">
         <is>
           <t>7.00e+02
-9.28e-03
+5.55e-03
 -</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t>7.01e+02(+)
-9.28e-03
+5.55e-03
 0.0000</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
           <t>7.14e+02(+)
-9.28e-03
+5.55e-03
 0.0000</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>7.01e+02(+)
-9.28e-03
-0.0000</t>
+          <t>7.00e+02(=)
+5.55e-03
+0.6627</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>7.00e+02(-)
-9.28e-03
-0.0003</t>
+5.55e-03
+0.0000</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
           <t>7.00e+02(+)
-9.28e-03
-0.0056</t>
+5.55e-03
+0.0182</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>7.00e+02(+)
-9.28e-03
-0.0063</t>
+          <t>7.00e+02(=)
+5.55e-03
+1.0000</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>tie</t>
         </is>
       </c>
     </row>
@@ -843,50 +843,50 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1.37e+05
-6.81e+04
+          <t>2.92e+05
+1.69e+05
 -</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
           <t>4.69e+06(+)
-6.81e+04
+1.69e+05
 0.0000</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>3.13e+05(+)
-6.81e+04
-0.0176</t>
+          <t>3.13e+05(=)
+1.69e+05
+0.1907</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2.03e+07(+)
-6.81e+04
+          <t>1.21e+07(+)
+1.69e+05
 0.0000</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>8.27e+06(+)
-6.81e+04
+1.69e+05
 0.0000</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>5.10e+07(+)
-6.81e+04
+          <t>2.54e+07(+)
+1.69e+05
 0.0000</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
           <t>3.31e+06(+)
-6.81e+04
+1.69e+05
 0.0000</t>
         </is>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -929,50 +929,50 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1.58e+05
-1.15e+05
+          <t>2.71e+05
+1.79e+05
 -</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
           <t>4.40e+06(+)
-1.15e+05
+1.79e+05
 0.0000</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
           <t>4.27e+06(+)
-1.15e+05
-0.0000</t>
+1.79e+05
+0.0007</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2.13e+07(+)
-1.15e+05
+          <t>1.21e+07(+)
+1.79e+05
 0.0000</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>8.44e+06(+)
-1.15e+05
+1.79e+05
 0.0000</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>4.89e+07(+)
-1.15e+05
+          <t>2.43e+07(+)
+1.79e+05
 0.0000</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
           <t>4.16e+06(+)
-1.15e+05
+1.79e+05
 0.0000</t>
         </is>
       </c>
@@ -1021,49 +1021,49 @@
       <c r="C8" s="1" t="inlineStr">
         <is>
           <t>1.30e+03
-1.33e-01
+1.03e-01
 -</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-1.33e-01
+1.03e-01
 0.0000</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-1.33e-01
+1.03e-01
 0.0000</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>1.30e+03(=)
-1.33e-01
-0.0724</t>
+1.03e-01
+0.0824</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-1.33e-01
+1.03e-01
 0.0000</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-1.33e-01
-0.0004</t>
+1.03e-01
+0.0000</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-1.33e-01
+1.03e-01
 0.0000</t>
         </is>
       </c>
@@ -1107,49 +1107,49 @@
       <c r="C9" s="1" t="inlineStr">
         <is>
           <t>1.30e+03
-7.62e-02
+7.52e-02
 -</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-7.62e-02
+7.52e-02
 0.0000</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-7.62e-02
+7.52e-02
 0.0000</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>1.30e+03(+)
-7.62e-02
-0.0000</t>
+          <t>1.30e+03(=)
+7.52e-02
+0.8073</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-7.62e-02
+7.52e-02
 0.0000</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>1.30e+03(=)
-7.62e-02
-0.5201</t>
+          <t>1.30e+03(-)
+7.52e-02
+0.0052</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>1.30e+03(-)
-7.62e-02
+7.52e-02
 0.0000</t>
         </is>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>lose</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
@@ -1197,50 +1197,50 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1.53e+03
-1.00e+01
+          <t>1.52e+03
+1.04e+01
 -</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
           <t>1.57e+03(+)
-1.00e+01
+1.04e+01
 0.0000</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
           <t>1.27e+04(+)
-1.00e+01
+1.04e+01
 0.0000</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
+          <t>1.53e+03(+)
+1.04e+01
+0.0000</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
           <t>1.54e+03(+)
-1.00e+01
-0.0000</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
+1.04e+01
+0.0000</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>1.53e+03(+)
+1.04e+01
+0.0001</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
         <is>
           <t>1.54e+03(+)
-1.00e+01
-0.0000</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>1.53e+03(+)
-1.00e+01
-0.0019</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>1.54e+03(+)
-1.00e+01
+1.04e+01
 0.0000</t>
         </is>
       </c>
@@ -1283,50 +1283,50 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1.53e+03
-1.02e+01
+          <t>1.52e+03
+8.95e+00
 -</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
           <t>1.57e+03(+)
-1.02e+01
+8.95e+00
 0.0000</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
           <t>5.01e+04(+)
-1.02e+01
+8.95e+00
 0.0000</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
           <t>1.54e+03(+)
-1.02e+01
+8.95e+00
 0.0000</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
           <t>1.54e+03(+)
-1.02e+01
+8.95e+00
 0.0000</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
           <t>1.53e+03(+)
-1.02e+01
+8.95e+00
 0.0000</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
           <t>1.54e+03(+)
-1.02e+01
+8.95e+00
 0.0000</t>
         </is>
       </c>
@@ -1374,50 +1374,50 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1.05e+05
-6.78e+04
+          <t>2.06e+05
+1.11e+05
 -</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
           <t>2.54e+06(+)
-6.78e+04
+1.11e+05
 0.0000</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
           <t>8.92e+06(+)
-6.78e+04
+1.11e+05
 0.0000</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>8.75e+06(+)
-6.78e+04
+          <t>5.71e+06(+)
+1.11e+05
 0.0000</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
           <t>2.13e+07(+)
-6.78e+04
+1.11e+05
 0.0000</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>2.27e+07(+)
-6.78e+04
+          <t>1.28e+07(+)
+1.11e+05
 0.0000</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
           <t>1.96e+06(+)
-6.78e+04
+1.11e+05
 0.0000</t>
         </is>
       </c>
@@ -1460,50 +1460,50 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1.04e+05
-5.77e+04
+          <t>1.33e+05
+6.49e+04
 -</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
           <t>2.33e+06(+)
-5.77e+04
+6.49e+04
 0.0000</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
           <t>4.09e+07(+)
-5.77e+04
+6.49e+04
 0.0000</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>9.23e+06(+)
-5.77e+04
+          <t>5.58e+06(+)
+6.49e+04
 0.0000</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
           <t>2.11e+07(+)
-5.77e+04
+6.49e+04
 0.0000</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>2.09e+07(+)
-5.77e+04
+          <t>1.35e+07(+)
+6.49e+04
 0.0000</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
           <t>1.79e+06(+)
-5.77e+04
+6.49e+04
 0.0000</t>
         </is>
       </c>
@@ -1551,51 +1551,51 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2.90e+03
-3.06e+02
+          <t>2.87e+03
+2.82e+02
 -</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
           <t>3.40e+03(+)
-3.06e+02
+2.82e+02
 0.0000</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
           <t>3.86e+03(+)
-3.06e+02
+2.82e+02
 0.0000</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>4.09e+03(+)
-3.06e+02
+          <t>3.94e+03(+)
+2.82e+02
 0.0000</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
           <t>4.25e+03(+)
-3.06e+02
+2.82e+02
 0.0000</t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>4.33e+03(+)
-3.06e+02
+          <t>3.83e+03(+)
+2.82e+02
 0.0000</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
           <t>2.95e+03(=)
-3.06e+02
-0.4642</t>
+2.82e+02
+0.3554</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
@@ -1637,51 +1637,51 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2.98e+03
-3.28e+02
+          <t>2.87e+03
+2.53e+02
 -</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
           <t>3.37e+03(+)
-3.28e+02
-0.0008</t>
+2.53e+02
+0.0000</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
           <t>3.65e+03(+)
-3.28e+02
-0.0010</t>
+2.53e+02
+0.0000</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>4.13e+03(+)
-3.28e+02
+          <t>3.95e+03(+)
+2.53e+02
 0.0000</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
           <t>4.24e+03(+)
-3.28e+02
+2.53e+02
 0.0000</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>4.28e+03(+)
-3.28e+02
+          <t>3.92e+03(+)
+2.53e+02
 0.0000</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>3.09e+03(=)
-3.28e+02
-0.1958</t>
+          <t>3.09e+03(+)
+2.53e+02
+0.0029</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>win</t>
         </is>
       </c>
     </row>
@@ -1729,49 +1729,49 @@
       <c r="C16" s="1" t="inlineStr">
         <is>
           <t>5.21e+02
-4.26e-02
+3.34e-02
 -</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
           <t>5.21e+02(-)
-4.26e-02
+3.34e-02
 0.0000</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
           <t>5.20e+02(-)
-4.26e-02
+3.34e-02
 0.0000</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
+          <t>5.21e+02(-)
+3.34e-02
+0.0021</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>5.21e+02(-)
+3.34e-02
+0.0000</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
           <t>5.21e+02(=)
-4.26e-02
-0.1761</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
+3.34e-02
+0.7618</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
         <is>
           <t>5.21e+02(-)
-4.26e-02
-0.0000</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>5.21e+02(+)
-4.26e-02
-0.0163</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>5.21e+02(-)
-4.26e-02
+3.34e-02
 0.0000</t>
         </is>
       </c>
@@ -1787,17 +1787,17 @@
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>lose</t>
+        </is>
+      </c>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
           <t>tie</t>
-        </is>
-      </c>
-      <c r="M16" s="1" t="inlineStr">
-        <is>
-          <t>lose</t>
-        </is>
-      </c>
-      <c r="N16" s="1" t="inlineStr">
-        <is>
-          <t>win</t>
         </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
@@ -1815,49 +1815,49 @@
       <c r="C17" s="1" t="inlineStr">
         <is>
           <t>5.21e+02
-3.63e-02
+2.57e-02
 -</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
           <t>5.21e+02(-)
-3.63e-02
+2.57e-02
 0.0000</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
           <t>5.20e+02(-)
-3.63e-02
+2.57e-02
 0.0000</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
+          <t>5.21e+02(-)
+2.57e-02
+0.0000</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>5.21e+02(-)
+2.57e-02
+0.0000</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
           <t>5.21e+02(=)
-3.63e-02
-0.6627</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
+2.57e-02
+0.3790</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
         <is>
           <t>5.21e+02(-)
-3.63e-02
-0.0000</t>
-        </is>
-      </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>5.21e+02(=)
-3.63e-02
-0.3555</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
-        <is>
-          <t>5.21e+02(-)
-3.63e-02
+2.57e-02
 0.0000</t>
         </is>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>lose</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
@@ -1905,51 +1905,51 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>1.20e+04
-3.96e+03
+          <t>1.36e+04
+2.37e+03
 -</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
           <t>8.40e+03(-)
-3.96e+03
-0.0061</t>
+2.37e+03
+0.0000</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
           <t>1.58e+04(+)
-3.96e+03
+2.37e+03
 0.0000</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>1.51e+04(+)
-3.96e+03
-0.0056</t>
+          <t>1.47e+04(=)
+2.37e+03
+0.0635</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
           <t>1.49e+04(+)
-3.96e+03
-0.0146</t>
+2.37e+03
+0.0001</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>1.50e+04(+)
-3.96e+03
-0.0121</t>
+          <t>1.48e+04(+)
+2.37e+03
+0.0025</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
           <t>8.98e+03(-)
-3.96e+03
-0.0121</t>
+2.37e+03
+0.0000</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
@@ -1992,49 +1992,49 @@
       <c r="C19" s="1" t="inlineStr">
         <is>
           <t>1.62e+03
-4.34e-01
+4.40e-01
 -</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
           <t>1.62e+03(-)
-4.34e-01
+4.40e-01
 0.0000</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
           <t>1.62e+03(-)
-4.34e-01
+4.40e-01
 0.0000</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
           <t>1.62e+03(+)
-4.34e-01
+4.40e-01
 0.0000</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
           <t>1.62e+03(-)
-4.34e-01
+4.40e-01
 0.0000</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
           <t>1.62e+03(+)
-4.34e-01
+4.40e-01
 0.0000</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1.62e+03(-)
-4.34e-01
+4.40e-01
 0.0000</t>
         </is>
       </c>
@@ -2082,50 +2082,50 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8.56e+03
-3.19e+03
+          <t>1.27e+04
+6.47e+03
 -</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
           <t>4.80e+04(+)
-3.19e+03
+6.47e+03
 0.0000</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
           <t>5.23e+04(+)
-3.19e+03
+6.47e+03
 0.0000</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>5.57e+04(+)
-3.19e+03
+          <t>3.64e+04(+)
+6.47e+03
 0.0000</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
           <t>6.65e+04(+)
-3.19e+03
+6.47e+03
 0.0000</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>7.76e+04(+)
-3.19e+03
+          <t>4.27e+04(+)
+6.47e+03
 0.0000</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
           <t>3.77e+04(+)
-3.19e+03
+6.47e+03
 0.0000</t>
         </is>
       </c>
@@ -2168,50 +2168,50 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1.24e+05
-6.51e+04
+          <t>1.86e+05
+1.23e+05
 -</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
           <t>4.16e+06(+)
-6.51e+04
+1.23e+05
 0.0000</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
           <t>6.71e+07(+)
-6.51e+04
+1.23e+05
 0.0000</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>1.03e+07(+)
-6.51e+04
+          <t>6.63e+06(+)
+1.23e+05
 0.0000</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
           <t>2.30e+07(+)
-6.51e+04
+1.23e+05
 0.0000</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>2.12e+07(+)
-6.51e+04
+          <t>1.45e+07(+)
+1.23e+05
 0.0000</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
           <t>2.71e+06(+)
-6.51e+04
+1.23e+05
 0.0000</t>
         </is>
       </c>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>13/1/6</t>
+          <t>12/2/6</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>15/3/2</t>
+          <t>11/5/4</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>14/3/3</t>
+          <t>14/2/4</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
